--- a/InputData/fuels/BFCpUEbS/BAU Fuel Cost per Unit Energy by Sector.xlsx
+++ b/InputData/fuels/BFCpUEbS/BAU Fuel Cost per Unit Energy by Sector.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.0-poland - updated Industry data and webapp\InputData\fuels\BFCpUEbS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="19290" windowHeight="10440"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="19290" windowHeight="10440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -41,7 +46,7 @@
     <definedName name="zloty_per_euro">'Conversion Factors'!$C$8</definedName>
     <definedName name="zloty_per_usd">'Conversion Factors'!$A$8</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -477,7 +482,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -879,6 +884,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191125" y="495300"/>
+          <a:ext cx="7170420" cy="3977640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="eia_report">
   <a:themeElements>
@@ -1108,20 +1162,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="91.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="91.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1129,464 +1185,464 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
     </row>
-    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>21</v>
       </c>
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
     </row>
-    <row r="91" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
     </row>
-    <row r="96" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="3"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
     </row>
   </sheetData>
@@ -1612,16 +1668,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
     <col min="6" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1790,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1883,156 +1939,156 @@
         <v>1.193148124531811E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <f>'Poland Fuel Price Data Annual'!B$17+'ETS Tax'!B32</f>
-        <v>9.4542098511523731E-6</v>
+        <v>8.5524172538438035E-6</v>
       </c>
       <c r="C3" s="4">
         <f>'Poland Fuel Price Data Annual'!C$17+'ETS Tax'!C32</f>
-        <v>9.5295755968509676E-6</v>
+        <v>8.6879025060296197E-6</v>
       </c>
       <c r="D3" s="4">
         <f>'Poland Fuel Price Data Annual'!D$17+'ETS Tax'!D32</f>
-        <v>9.6049413425495893E-6</v>
+        <v>8.8233877582154902E-6</v>
       </c>
       <c r="E3" s="4">
         <f>'Poland Fuel Price Data Annual'!E$17+'ETS Tax'!E32</f>
-        <v>9.6803070882481838E-6</v>
+        <v>8.9588730104013065E-6</v>
       </c>
       <c r="F3" s="4">
         <f>'Poland Fuel Price Data Annual'!F$17+'ETS Tax'!F32</f>
-        <v>9.7556728339467783E-6</v>
+        <v>9.0943582625871769E-6</v>
       </c>
       <c r="G3" s="4">
         <f>'Poland Fuel Price Data Annual'!G$17+'ETS Tax'!G32</f>
-        <v>9.8310385796453593E-6</v>
+        <v>9.2298435147729796E-6</v>
       </c>
       <c r="H3" s="4">
         <f>'Poland Fuel Price Data Annual'!H$17+'ETS Tax'!H32</f>
-        <v>9.8914465695853511E-6</v>
+        <v>9.3503710112002202E-6</v>
       </c>
       <c r="I3" s="4">
         <f>'Poland Fuel Price Data Annual'!I$17+'ETS Tax'!I32</f>
-        <v>9.9518545595253158E-6</v>
+        <v>9.4708985076274066E-6</v>
       </c>
       <c r="J3" s="4">
         <f>'Poland Fuel Price Data Annual'!J$17+'ETS Tax'!J32</f>
-        <v>1.0012262549465281E-5</v>
+        <v>9.591426004054593E-6</v>
       </c>
       <c r="K3" s="4">
         <f>'Poland Fuel Price Data Annual'!K$17+'ETS Tax'!K32</f>
-        <v>1.0072670539405259E-5</v>
+        <v>9.7119535004818472E-6</v>
       </c>
       <c r="L3" s="4">
         <f>'Poland Fuel Price Data Annual'!L$17+'ETS Tax'!L32</f>
-        <v>1.0133078529345251E-5</v>
+        <v>9.8324809969090336E-6</v>
       </c>
       <c r="M3" s="4">
         <f>'Poland Fuel Price Data Annual'!M$17+'ETS Tax'!M32</f>
-        <v>1.0171829813320144E-5</v>
+        <v>9.9313517873712029E-6</v>
       </c>
       <c r="N3" s="4">
         <f>'Poland Fuel Price Data Annual'!N$17+'ETS Tax'!N32</f>
-        <v>1.0210581097295058E-5</v>
+        <v>1.0030222577833352E-5</v>
       </c>
       <c r="O3" s="4">
         <f>'Poland Fuel Price Data Annual'!O$17+'ETS Tax'!O32</f>
-        <v>1.0249332381269971E-5</v>
+        <v>1.0129093368295501E-5</v>
       </c>
       <c r="P3" s="4">
         <f>'Poland Fuel Price Data Annual'!P$17+'ETS Tax'!P32</f>
-        <v>1.0288083665244899E-5</v>
+        <v>1.0227964158757677E-5</v>
       </c>
       <c r="Q3" s="4">
         <f>'Poland Fuel Price Data Annual'!Q$17+'ETS Tax'!Q32</f>
-        <v>1.0326834949219812E-5</v>
+        <v>1.0326834949219826E-5</v>
       </c>
       <c r="R3" s="4">
         <f>'Poland Fuel Price Data Annual'!R$17+'ETS Tax'!R32</f>
-        <v>1.0344218010682418E-5</v>
+        <v>1.040433751716968E-5</v>
       </c>
       <c r="S3" s="4">
         <f>'Poland Fuel Price Data Annual'!S$17+'ETS Tax'!S32</f>
-        <v>1.0361601072144983E-5</v>
+        <v>1.0481840085119467E-5</v>
       </c>
       <c r="T3" s="4">
         <f>'Poland Fuel Price Data Annual'!T$17+'ETS Tax'!T32</f>
-        <v>1.0378984133607589E-5</v>
+        <v>1.0559342653069321E-5</v>
       </c>
       <c r="U3" s="4">
         <f>'Poland Fuel Price Data Annual'!U$17+'ETS Tax'!U32</f>
-        <v>1.0396367195070167E-5</v>
+        <v>1.0636845221019122E-5</v>
       </c>
       <c r="V3" s="4">
         <f>'Poland Fuel Price Data Annual'!V$17+'ETS Tax'!V32</f>
-        <v>1.0413750256532773E-5</v>
+        <v>1.0714347788968976E-5</v>
       </c>
       <c r="W3" s="4">
         <f>'Poland Fuel Price Data Annual'!W$17+'ETS Tax'!W32</f>
-        <v>1.0403874580511272E-5</v>
+        <v>1.0748559751038102E-5</v>
       </c>
       <c r="X3" s="4">
         <f>'Poland Fuel Price Data Annual'!X$17+'ETS Tax'!X32</f>
-        <v>1.0393998904489764E-5</v>
+        <v>1.0782771713107228E-5</v>
       </c>
       <c r="Y3" s="4">
         <f>'Poland Fuel Price Data Annual'!Y$17+'ETS Tax'!Y32</f>
-        <v>1.0384123228468256E-5</v>
+        <v>1.0816983675176381E-5</v>
       </c>
       <c r="Z3" s="4">
         <f>'Poland Fuel Price Data Annual'!Z$17+'ETS Tax'!Z32</f>
-        <v>1.0374247552446762E-5</v>
+        <v>1.0851195637245514E-5</v>
       </c>
       <c r="AA3" s="4">
         <f>'Poland Fuel Price Data Annual'!AA$17+'ETS Tax'!AA32</f>
-        <v>1.0364371876425254E-5</v>
+        <v>1.088540759931464E-5</v>
       </c>
       <c r="AB3" s="4">
         <f>'Poland Fuel Price Data Annual'!AB$17+'ETS Tax'!AB32</f>
-        <v>1.0366248722785527E-5</v>
+        <v>1.0931372083765573E-5</v>
       </c>
       <c r="AC3" s="4">
         <f>'Poland Fuel Price Data Annual'!AC$17+'ETS Tax'!AC32</f>
-        <v>1.03681255691458E-5</v>
+        <v>1.097733656821648E-5</v>
       </c>
       <c r="AD3" s="4">
         <f>'Poland Fuel Price Data Annual'!AD$17+'ETS Tax'!AD32</f>
-        <v>1.0370002415506066E-5</v>
+        <v>1.102330105266738E-5</v>
       </c>
       <c r="AE3" s="4">
         <f>'Poland Fuel Price Data Annual'!AE$17+'ETS Tax'!AE32</f>
-        <v>1.0371879261866338E-5</v>
+        <v>1.1069265537118313E-5</v>
       </c>
       <c r="AF3" s="4">
         <f>'Poland Fuel Price Data Annual'!AF$17+'ETS Tax'!AF32</f>
-        <v>1.0373756108226618E-5</v>
+        <v>1.111523002156922E-5</v>
       </c>
       <c r="AG3" s="4">
         <f>'Poland Fuel Price Data Annual'!AG$17+'ETS Tax'!AG32</f>
-        <v>1.0370825104521617E-5</v>
+        <v>1.1156386655954853E-5</v>
       </c>
       <c r="AH3" s="4">
         <f>'Poland Fuel Price Data Annual'!AH$17+'ETS Tax'!AH32</f>
-        <v>1.0367894100816616E-5</v>
+        <v>1.1197543290340512E-5</v>
       </c>
       <c r="AI3" s="4">
         <f>'Poland Fuel Price Data Annual'!AI$17+'ETS Tax'!AI32</f>
-        <v>1.0364963097111615E-5</v>
+        <v>1.1238699924726145E-5</v>
       </c>
       <c r="AJ3" s="4">
         <f>'Poland Fuel Price Data Annual'!AJ$17+'ETS Tax'!AJ32</f>
-        <v>1.0362032093406613E-5</v>
+        <v>1.1279856559111778E-5</v>
       </c>
       <c r="AK3" s="4">
         <f>'Poland Fuel Price Data Annual'!AK$17+'ETS Tax'!AK32</f>
-        <v>1.0359101089701612E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+        <v>1.1321013193497437E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2181,7 +2237,7 @@
         <v>1.193148124531811E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2386,7 @@
         <v>1.193148124531811E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2479,7 +2535,7 @@
         <v>7.9543208302120731E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2628,7 +2684,7 @@
         <v>7.9543208302120731E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2770,17 +2826,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2893,7 +2949,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3016,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3165,7 +3221,7 @@
         <v>7.2824999999999997E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3288,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3411,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3534,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -3657,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3802,14 +3858,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3922,7 +3978,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4045,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4194,7 +4250,7 @@
         <v>7.0782237072068454E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4343,7 +4399,7 @@
         <v>7.0782237072068454E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4492,7 +4548,7 @@
         <v>7.0782237072068454E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4641,7 +4697,7 @@
         <v>7.0782237072068454E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -4790,7 +4846,7 @@
         <v>7.0782237072068454E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -4932,16 +4988,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
     <col min="6" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5054,7 +5110,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5203,7 +5259,7 @@
         <v>5.0095346176078316E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5326,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5449,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -5572,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5695,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -5844,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -5986,16 +6042,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
     <col min="6" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6108,7 +6164,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6257,156 +6313,156 @@
         <v>4.2546274433291137E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <f>'Poland Fuel Price Data Annual'!B$28+'ETS Tax'!B33</f>
-        <v>3.042971141758844E-5</v>
+        <v>2.9092086709011941E-5</v>
       </c>
       <c r="C3" s="4">
         <f>'Poland Fuel Price Data Annual'!C$28+'ETS Tax'!C33</f>
-        <v>3.1108129415135646E-5</v>
+        <v>2.9859679687130895E-5</v>
       </c>
       <c r="D3" s="4">
         <f>'Poland Fuel Price Data Annual'!D$28+'ETS Tax'!D33</f>
-        <v>3.17865474126828E-5</v>
+        <v>3.0627272665249845E-5</v>
       </c>
       <c r="E3" s="4">
         <f>'Poland Fuel Price Data Annual'!E$28+'ETS Tax'!E33</f>
-        <v>3.2464965410230009E-5</v>
+        <v>3.1394865643368799E-5</v>
       </c>
       <c r="F3" s="4">
         <f>'Poland Fuel Price Data Annual'!F$28+'ETS Tax'!F33</f>
-        <v>3.3143383407777164E-5</v>
+        <v>3.2162458621487753E-5</v>
       </c>
       <c r="G3" s="4">
         <f>'Poland Fuel Price Data Annual'!G$28+'ETS Tax'!G33</f>
-        <v>3.3821801405324372E-5</v>
+        <v>3.2930051599606706E-5</v>
       </c>
       <c r="H3" s="4">
         <f>'Poland Fuel Price Data Annual'!H$28+'ETS Tax'!H33</f>
-        <v>3.430181184186913E-5</v>
+        <v>3.3499237016723263E-5</v>
       </c>
       <c r="I3" s="4">
         <f>'Poland Fuel Price Data Annual'!I$28+'ETS Tax'!I33</f>
-        <v>3.4781822278414051E-5</v>
+        <v>3.4068422433839929E-5</v>
       </c>
       <c r="J3" s="4">
         <f>'Poland Fuel Price Data Annual'!J$28+'ETS Tax'!J33</f>
-        <v>3.5261832714959094E-5</v>
+        <v>3.4637607850956717E-5</v>
       </c>
       <c r="K3" s="4">
         <f>'Poland Fuel Price Data Annual'!K$28+'ETS Tax'!K33</f>
-        <v>3.5741843151503967E-5</v>
+        <v>3.5206793268073389E-5</v>
       </c>
       <c r="L3" s="4">
         <f>'Poland Fuel Price Data Annual'!L$28+'ETS Tax'!L33</f>
-        <v>3.6221853588048894E-5</v>
+        <v>3.5775978685190061E-5</v>
       </c>
       <c r="M3" s="4">
         <f>'Poland Fuel Price Data Annual'!M$28+'ETS Tax'!M33</f>
-        <v>3.6616738177920038E-5</v>
+        <v>3.6260038255633004E-5</v>
       </c>
       <c r="N3" s="4">
         <f>'Poland Fuel Price Data Annual'!N$28+'ETS Tax'!N33</f>
-        <v>3.7011622767791257E-5</v>
+        <v>3.6744097826075995E-5</v>
       </c>
       <c r="O3" s="4">
         <f>'Poland Fuel Price Data Annual'!O$28+'ETS Tax'!O33</f>
-        <v>3.7406507357662373E-5</v>
+        <v>3.7228157396518884E-5</v>
       </c>
       <c r="P3" s="4">
         <f>'Poland Fuel Price Data Annual'!P$28+'ETS Tax'!P33</f>
-        <v>3.7801391947533565E-5</v>
+        <v>3.771221696696182E-5</v>
       </c>
       <c r="Q3" s="4">
         <f>'Poland Fuel Price Data Annual'!Q$28+'ETS Tax'!Q33</f>
-        <v>3.8196276537404681E-5</v>
+        <v>3.8196276537404709E-5</v>
       </c>
       <c r="R3" s="4">
         <f>'Poland Fuel Price Data Annual'!R$28+'ETS Tax'!R33</f>
-        <v>3.8617480497612876E-5</v>
+        <v>3.8706655478184648E-5</v>
       </c>
       <c r="S3" s="4">
         <f>'Poland Fuel Price Data Annual'!S$28+'ETS Tax'!S33</f>
-        <v>3.903868445782111E-5</v>
+        <v>3.9217034418964655E-5</v>
       </c>
       <c r="T3" s="4">
         <f>'Poland Fuel Price Data Annual'!T$28+'ETS Tax'!T33</f>
-        <v>3.9459888418029311E-5</v>
+        <v>3.97274133597446E-5</v>
       </c>
       <c r="U3" s="4">
         <f>'Poland Fuel Price Data Annual'!U$28+'ETS Tax'!U33</f>
-        <v>3.988109237823754E-5</v>
+        <v>4.0237792300524601E-5</v>
       </c>
       <c r="V3" s="4">
         <f>'Poland Fuel Price Data Annual'!V$28+'ETS Tax'!V33</f>
-        <v>4.0302296338445652E-5</v>
+        <v>4.0748171241304485E-5</v>
       </c>
       <c r="W3" s="4">
         <f>'Poland Fuel Price Data Annual'!W$28+'ETS Tax'!W33</f>
-        <v>4.0708590784484244E-5</v>
+        <v>4.1219860673095699E-5</v>
       </c>
       <c r="X3" s="4">
         <f>'Poland Fuel Price Data Annual'!X$28+'ETS Tax'!X33</f>
-        <v>4.1114885230522599E-5</v>
+        <v>4.1691550104886683E-5</v>
       </c>
       <c r="Y3" s="4">
         <f>'Poland Fuel Price Data Annual'!Y$28+'ETS Tax'!Y33</f>
-        <v>4.1521179676561076E-5</v>
+        <v>4.2163239536677781E-5</v>
       </c>
       <c r="Z3" s="4">
         <f>'Poland Fuel Price Data Annual'!Z$28+'ETS Tax'!Z33</f>
-        <v>4.1927474122599437E-5</v>
+        <v>4.2634928968468745E-5</v>
       </c>
       <c r="AA3" s="4">
         <f>'Poland Fuel Price Data Annual'!AA$28+'ETS Tax'!AA33</f>
-        <v>4.2333768568637907E-5</v>
+        <v>4.3106618400259836E-5</v>
       </c>
       <c r="AB3" s="4">
         <f>'Poland Fuel Price Data Annual'!AB$28+'ETS Tax'!AB33</f>
-        <v>4.2711719077390119E-5</v>
+        <v>4.3549963894764677E-5</v>
       </c>
       <c r="AC3" s="4">
         <f>'Poland Fuel Price Data Annual'!AC$28+'ETS Tax'!AC33</f>
-        <v>4.3089669586142541E-5</v>
+        <v>4.3993309389269728E-5</v>
       </c>
       <c r="AD3" s="4">
         <f>'Poland Fuel Price Data Annual'!AD$28+'ETS Tax'!AD33</f>
-        <v>4.3467620094894868E-5</v>
+        <v>4.4436654883774677E-5</v>
       </c>
       <c r="AE3" s="4">
         <f>'Poland Fuel Price Data Annual'!AE$28+'ETS Tax'!AE33</f>
-        <v>4.3845570603647297E-5</v>
+        <v>4.4880000378279734E-5</v>
       </c>
       <c r="AF3" s="4">
         <f>'Poland Fuel Price Data Annual'!AF$28+'ETS Tax'!AF33</f>
-        <v>4.4223521112399617E-5</v>
+        <v>4.5323345872784677E-5</v>
       </c>
       <c r="AG3" s="4">
         <f>'Poland Fuel Price Data Annual'!AG$28+'ETS Tax'!AG33</f>
-        <v>4.4601471621152053E-5</v>
+        <v>4.5766691367289741E-5</v>
       </c>
       <c r="AH3" s="4">
         <f>'Poland Fuel Price Data Annual'!AH$28+'ETS Tax'!AH33</f>
-        <v>4.4979422129904373E-5</v>
+        <v>4.6210036861794683E-5</v>
       </c>
       <c r="AI3" s="4">
         <f>'Poland Fuel Price Data Annual'!AI$28+'ETS Tax'!AI33</f>
-        <v>4.5357372638656802E-5</v>
+        <v>4.6653382356299741E-5</v>
       </c>
       <c r="AJ3" s="4">
         <f>'Poland Fuel Price Data Annual'!AJ$28+'ETS Tax'!AJ33</f>
-        <v>4.573532314740923E-5</v>
+        <v>4.7096727850804798E-5</v>
       </c>
       <c r="AK3" s="4">
         <f>'Poland Fuel Price Data Annual'!AK$28+'ETS Tax'!AK33</f>
-        <v>4.6113273656161558E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+        <v>4.7540073345309747E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -6555,7 +6611,7 @@
         <v>4.2546274433291137E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6704,7 +6760,7 @@
         <v>4.2546274433291137E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -6853,7 +6909,7 @@
         <v>4.2546274433291137E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -7002,7 +7058,7 @@
         <v>4.2546274433291137E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -7144,17 +7200,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7267,7 +7323,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7416,7 +7472,7 @@
         <v>1.0777965334244479E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -7539,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -7662,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -7785,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -7908,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -8057,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -8199,14 +8255,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8319,7 +8375,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -8468,7 +8524,7 @@
         <v>1.2847033723017379E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -8617,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -8766,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -8915,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -9064,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -9213,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -9381,16 +9437,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
     <col min="6" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9503,7 +9559,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9652,7 +9708,7 @@
         <v>2.0998639465126882E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -9765,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -9878,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -9991,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -10104,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -10253,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -10385,14 +10441,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10505,7 +10561,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10628,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -10751,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -10900,7 +10956,7 @@
         <v>1.8654725356039015E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -11049,7 +11105,7 @@
         <v>1.8654725356039015E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -11198,7 +11254,7 @@
         <v>1.8654725356039015E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -11345,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -11479,14 +11535,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
@@ -11500,7 +11556,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16">
         <v>2010</v>
@@ -11530,7 +11586,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -11562,7 +11618,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -11594,7 +11650,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -11608,7 +11664,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16">
         <v>2010</v>
@@ -11638,7 +11694,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>69</v>
       </c>
@@ -11670,7 +11726,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -11684,7 +11740,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>2015</v>
       </c>
@@ -11710,7 +11766,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>36</v>
       </c>
@@ -11739,7 +11795,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -11768,7 +11824,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -11781,7 +11837,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>2015</v>
       </c>
@@ -11807,7 +11863,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>33</v>
       </c>
@@ -11836,7 +11892,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -11865,7 +11921,7 @@
         <v>44.67</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>37</v>
       </c>
@@ -11879,7 +11935,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="16">
         <v>2011</v>
@@ -11909,7 +11965,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>38</v>
       </c>
@@ -11941,7 +11997,7 @@
         <v>104.43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
@@ -11973,18 +12029,18 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="23">
         <v>42688</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -11992,7 +12048,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -12000,18 +12056,18 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="23">
         <v>42682</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -12019,18 +12075,18 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="16">
         <v>2013</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -12039,7 +12095,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>81</v>
       </c>
@@ -12049,7 +12105,7 @@
       </c>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
         <v>42688</v>
       </c>
@@ -12057,7 +12113,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -12071,7 +12127,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -12079,7 +12135,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -12088,7 +12144,7 @@
         <v>4109.9972484372011</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -12097,18 +12153,18 @@
         <v>4020.9676344502827</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="16">
         <v>2030</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -12127,17 +12183,17 @@
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="15"/>
-    <col min="5" max="5" width="11.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="15"/>
+    <col min="1" max="1" width="25.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="15"/>
+    <col min="5" max="5" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>90</v>
       </c>
@@ -12151,7 +12207,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16">
         <v>2010</v>
@@ -12181,7 +12237,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
@@ -12222,7 +12278,7 @@
         <v>8.1958315402080501E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
@@ -12263,7 +12319,7 @@
         <v>5.9492186920325869E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
@@ -12277,7 +12333,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16">
         <v>2010</v>
@@ -12307,7 +12363,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>69</v>
       </c>
@@ -12348,7 +12404,7 @@
         <v>1.8654725356038994E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>93</v>
       </c>
@@ -12361,7 +12417,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>2015</v>
       </c>
@@ -12387,7 +12443,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>36</v>
       </c>
@@ -12424,7 +12480,7 @@
         <v>6.0349202430426967E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
@@ -12461,7 +12517,7 @@
         <v>9.0523803645640463E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>94</v>
       </c>
@@ -12474,7 +12530,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>2015</v>
       </c>
@@ -12500,7 +12556,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>33</v>
       </c>
@@ -12537,7 +12593,7 @@
         <v>7.9543208302120697E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -12574,7 +12630,7 @@
         <v>1.1931481245318105E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>95</v>
       </c>
@@ -12588,7 +12644,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <v>2011</v>
       </c>
@@ -12617,7 +12673,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>38</v>
       </c>
@@ -12658,7 +12714,7 @@
         <v>26.437974683544304</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
@@ -12699,18 +12755,18 @@
         <v>10.640506329113924</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="23">
         <v>42688</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
@@ -12719,7 +12775,7 @@
         <v>3.5896148179220023E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>44</v>
       </c>
@@ -12728,18 +12784,18 @@
         <v>3.0483904551133272E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="23">
         <v>42682</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>23</v>
       </c>
@@ -12748,18 +12804,18 @@
         <v>1.5046712545968087E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="16">
         <v>2013</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>60</v>
       </c>
@@ -12768,11 +12824,11 @@
         <v>7.0782237072068454E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>98</v>
       </c>
@@ -12781,7 +12837,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="29">
         <v>2016</v>
       </c>
@@ -12791,7 +12847,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>86</v>
       </c>
@@ -12806,18 +12862,18 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="16">
         <v>2030</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>106</v>
       </c>
@@ -12837,14 +12893,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" style="15" customWidth="1"/>
-    <col min="2" max="37" width="10.90625" style="15" customWidth="1"/>
-    <col min="38" max="16384" width="8.7265625" style="15"/>
+    <col min="1" max="1" width="25.28515625" style="15" customWidth="1"/>
+    <col min="2" max="37" width="10.85546875" style="15" customWidth="1"/>
+    <col min="38" max="16384" width="8.7109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>90</v>
       </c>
@@ -12885,7 +12941,7 @@
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16">
         <v>2015</v>
@@ -12996,7 +13052,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
@@ -13145,7 +13201,7 @@
         <v>8.1958315402080501E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
@@ -13294,7 +13350,7 @@
         <v>5.9492186920325889E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
@@ -13335,7 +13391,7 @@
       <c r="AJ6" s="11"/>
       <c r="AK6" s="11"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16">
         <v>2015</v>
@@ -13446,7 +13502,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>69</v>
       </c>
@@ -13595,7 +13651,7 @@
         <v>1.8654725356039015E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>93</v>
       </c>
@@ -13636,7 +13692,7 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16">
         <v>2015</v>
@@ -13747,7 +13803,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>36</v>
       </c>
@@ -13896,7 +13952,7 @@
         <v>6.0349202430426874E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
@@ -14045,7 +14101,7 @@
         <v>9.0523803645640175E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>94</v>
       </c>
@@ -14086,7 +14142,7 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16">
         <v>2015</v>
@@ -14197,7 +14253,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>33</v>
       </c>
@@ -14346,7 +14402,7 @@
         <v>7.9543208302120731E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -14495,7 +14551,7 @@
         <v>1.193148124531811E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>95</v>
       </c>
@@ -14536,7 +14592,7 @@
       <c r="AJ20" s="25"/>
       <c r="AK20" s="25"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16">
         <v>2015</v>
@@ -14647,7 +14703,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>38</v>
       </c>
@@ -14796,7 +14852,7 @@
         <v>26.437974683544269</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
@@ -14945,7 +15001,7 @@
         <v>10.640506329113919</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>96</v>
       </c>
@@ -14986,7 +15042,7 @@
       <c r="AJ25" s="11"/>
       <c r="AK25" s="11"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16">
         <v>2015</v>
@@ -15097,7 +15153,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
@@ -15246,7 +15302,7 @@
         <v>5.0095346176078316E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>44</v>
       </c>
@@ -15395,7 +15451,7 @@
         <v>4.2546274433291137E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>96</v>
       </c>
@@ -15436,7 +15492,7 @@
       <c r="AJ30" s="11"/>
       <c r="AK30" s="11"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16">
         <v>2015</v>
@@ -15547,7 +15603,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>23</v>
       </c>
@@ -15696,7 +15752,7 @@
         <v>2.0998639465126882E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>97</v>
       </c>
@@ -15737,7 +15793,7 @@
       <c r="AJ34" s="11"/>
       <c r="AK34" s="11"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16">
         <v>2015</v>
@@ -15848,7 +15904,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>59</v>
       </c>
@@ -15997,7 +16053,7 @@
         <v>7.0782237072068454E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>98</v>
       </c>
@@ -16038,7 +16094,7 @@
       <c r="AJ38" s="11"/>
       <c r="AK38" s="11"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16">
         <v>2015</v>
@@ -16149,7 +16205,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>82</v>
       </c>
@@ -16298,7 +16354,7 @@
         <v>1.2847033723017379E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>108</v>
       </c>
@@ -16339,7 +16395,7 @@
       <c r="AJ42" s="11"/>
       <c r="AK42" s="11"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16">
         <v>2015</v>
@@ -16450,7 +16506,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>106</v>
       </c>
@@ -16608,32 +16664,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
@@ -16642,7 +16700,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2020</v>
       </c>
@@ -16656,24 +16714,24 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>123</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>124</v>
       </c>
@@ -16682,7 +16740,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15">
         <v>2020</v>
@@ -16697,28 +16755,28 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B11" s="27">
         <f>B7*zloty_per_euro/zloty_per_usd</f>
-        <v>16.822784810126578</v>
+        <v>5.6075949367088604</v>
       </c>
       <c r="C11" s="27">
         <f>C7*zloty_per_euro/zloty_per_usd</f>
-        <v>28.037974683544302</v>
+        <v>22.430379746835442</v>
       </c>
       <c r="D11" s="27">
         <f>D7*zloty_per_euro/zloty_per_usd</f>
-        <v>39.25316455696202</v>
+        <v>44.860759493670884</v>
       </c>
       <c r="E11" s="27">
         <f>E7*zloty_per_euro/zloty_per_usd</f>
-        <v>44.860759493670884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+        <v>62.805063291139234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>131</v>
       </c>
@@ -16727,7 +16785,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
         <v>2020</v>
       </c>
@@ -16741,29 +16799,29 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="10">
         <f>B11/10^6</f>
-        <v>1.6822784810126577E-5</v>
+        <v>5.6075949367088604E-6</v>
       </c>
       <c r="C15" s="10">
         <f t="shared" ref="C15:E15" si="0">C11/10^6</f>
-        <v>2.8037974683544303E-5</v>
+        <v>2.2430379746835442E-5</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
-        <v>3.9253164556962022E-5</v>
+        <v>4.4860759493670883E-5</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
-        <v>4.4860759493670883E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+        <v>6.2805063291139235E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>129</v>
       </c>
@@ -16771,7 +16829,7 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>130</v>
       </c>
@@ -16779,7 +16837,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -16787,7 +16845,7 @@
         <v>9.4214277468284133E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -16795,7 +16853,7 @@
         <v>5.3605429034896589E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -16803,7 +16861,7 @@
         <v>7.9512680193781923E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>132</v>
       </c>
@@ -16812,7 +16870,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15">
         <v>2020</v>
@@ -16827,70 +16885,70 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B25" s="10">
         <f>B$15*$B19</f>
-        <v>1.5849465158905009E-6</v>
+        <v>5.2831550529683381E-7</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" ref="C25:E25" si="1">C$15*$B19</f>
-        <v>2.6415775264841689E-6</v>
+        <v>2.1132620211873352E-6</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="1"/>
-        <v>3.6982085370778364E-6</v>
+        <v>4.2265240423746705E-6</v>
       </c>
       <c r="E25" s="10">
         <f t="shared" si="1"/>
-        <v>4.2265240423746705E-6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+        <v>5.917133659324538E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" ref="B26:E26" si="2">B$15*$B20</f>
-        <v>9.0179259730857646E-7</v>
+        <v>3.0059753243619224E-7</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="2"/>
-        <v>1.5029876621809614E-6</v>
+        <v>1.202390129744769E-6</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="2"/>
-        <v>2.1041827270533455E-6</v>
+        <v>2.4047802594895379E-6</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="2"/>
-        <v>2.4047802594895379E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+        <v>3.3666923632853529E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:E27" si="3">B$15*$B21</f>
-        <v>1.3376247085764069E-6</v>
+        <v>4.4587490285880242E-7</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="3"/>
-        <v>2.2293745142940122E-6</v>
+        <v>1.7834996114352097E-6</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="3"/>
-        <v>3.1211243200116168E-6</v>
+        <v>3.5669992228704194E-6</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="3"/>
-        <v>3.5669992228704194E-6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+        <v>4.9937989120185871E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>133</v>
       </c>
@@ -16931,7 +16989,7 @@
       <c r="AJ29" s="11"/>
       <c r="AK29" s="11"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2015</v>
       </c>
@@ -17041,456 +17099,457 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="15">
         <f t="shared" ref="B31:F31" si="4">TREND($B25:$C25,$B$24:$C$24,B$30)</f>
-        <v>5.28315505296821E-7</v>
+        <v>-1.056631010593642E-6</v>
       </c>
       <c r="C31" s="15">
         <f t="shared" si="4"/>
-        <v>7.3964170741559277E-7</v>
+        <v>-7.3964170741553856E-7</v>
       </c>
       <c r="D31" s="15">
         <f t="shared" si="4"/>
-        <v>9.5096790953431033E-7</v>
+        <v>-4.2265240423743512E-7</v>
       </c>
       <c r="E31" s="15">
         <f t="shared" si="4"/>
-        <v>1.1622941116530279E-6</v>
+        <v>-1.0566310105933167E-7</v>
       </c>
       <c r="F31" s="15">
         <f t="shared" si="4"/>
-        <v>1.3736203137717454E-6</v>
+        <v>2.1132620211877177E-7</v>
       </c>
       <c r="G31">
         <f>TREND($B25:$C25,$B$24:$C$24,G$30)</f>
-        <v>1.5849465158905172E-6</v>
+        <v>5.2831550529687521E-7</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" ref="H31:M31" si="5">TREND($B25:$C25,$B$24:$C$24,H$30)</f>
-        <v>1.7962727180092348E-6</v>
+        <f t="shared" ref="H31:L31" si="5">TREND($B25:$C25,$B$24:$C$24,H$30)</f>
+        <v>8.4530480847497865E-7</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="5"/>
-        <v>2.0075989201279523E-6</v>
+        <v>1.1622941116530821E-6</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="5"/>
-        <v>2.2189251222467241E-6</v>
+        <v>1.4792834148311855E-6</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="5"/>
-        <v>2.4302513243654417E-6</v>
+        <v>1.796272718009289E-6</v>
       </c>
       <c r="L31" s="15">
         <f t="shared" si="5"/>
-        <v>2.6415775264841592E-6</v>
+        <v>2.1132620211873924E-6</v>
       </c>
       <c r="M31" s="15">
         <f>TREND($C25:$D25,$C$24:$D$24,M$30)</f>
-        <v>2.7472406275435451E-6</v>
+        <v>2.3245882233060558E-6</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" ref="N31:W31" si="6">TREND($C25:$D25,$C$24:$D$24,N$30)</f>
-        <v>2.8529037286029039E-6</v>
+        <f t="shared" ref="N31:V31" si="6">TREND($C25:$D25,$C$24:$D$24,N$30)</f>
+        <v>2.5359144254247733E-6</v>
       </c>
       <c r="O31" s="15">
         <f t="shared" si="6"/>
-        <v>2.9585668296622626E-6</v>
+        <v>2.7472406275434909E-6</v>
       </c>
       <c r="P31" s="15">
         <f t="shared" si="6"/>
-        <v>3.0642299307216214E-6</v>
+        <v>2.9585668296622084E-6</v>
       </c>
       <c r="Q31" s="15">
         <f t="shared" si="6"/>
-        <v>3.1698930317810073E-6</v>
+        <v>3.1698930317809802E-6</v>
       </c>
       <c r="R31" s="15">
         <f t="shared" si="6"/>
-        <v>3.2755561328403661E-6</v>
+        <v>3.3812192338996978E-6</v>
       </c>
       <c r="S31" s="15">
         <f t="shared" si="6"/>
-        <v>3.3812192338997249E-6</v>
+        <v>3.5925454360184153E-6</v>
       </c>
       <c r="T31" s="15">
         <f t="shared" si="6"/>
-        <v>3.4868823349591108E-6</v>
+        <v>3.8038716381371871E-6</v>
       </c>
       <c r="U31" s="15">
         <f t="shared" si="6"/>
-        <v>3.5925454360184695E-6</v>
+        <v>4.0151978402559046E-6</v>
       </c>
       <c r="V31" s="15">
         <f t="shared" si="6"/>
-        <v>3.6982085370778283E-6</v>
+        <v>4.2265240423746222E-6</v>
       </c>
       <c r="W31" s="15">
         <f>TREND($D25:$E25,$D$24:$E$24,W$30)</f>
-        <v>3.7334295707642948E-6</v>
+        <v>4.3392313501713204E-6</v>
       </c>
       <c r="X31" s="15">
         <f t="shared" ref="X31:AK31" si="7">TREND($D25:$E25,$D$24:$E$24,X$30)</f>
-        <v>3.7686506044507477E-6</v>
+        <v>4.4519386579679643E-6</v>
       </c>
       <c r="Y31" s="15">
         <f t="shared" si="7"/>
-        <v>3.8038716381372006E-6</v>
+        <v>4.5646459657646354E-6</v>
       </c>
       <c r="Z31" s="15">
         <f t="shared" si="7"/>
-        <v>3.8390926718236536E-6</v>
+        <v>4.6773532735612793E-6</v>
       </c>
       <c r="AA31" s="15">
         <f t="shared" si="7"/>
-        <v>3.8743137055101065E-6</v>
+        <v>4.7900605813579503E-6</v>
       </c>
       <c r="AB31" s="15">
         <f t="shared" si="7"/>
-        <v>3.909534739196573E-6</v>
+        <v>4.9027678891545943E-6</v>
       </c>
       <c r="AC31" s="15">
         <f t="shared" si="7"/>
-        <v>3.9447557728830259E-6</v>
+        <v>5.0154751969512653E-6</v>
       </c>
       <c r="AD31" s="15">
         <f t="shared" si="7"/>
-        <v>3.9799768065694788E-6</v>
+        <v>5.1281825047479093E-6</v>
       </c>
       <c r="AE31" s="15">
         <f t="shared" si="7"/>
-        <v>4.0151978402559318E-6</v>
+        <v>5.2408898125445803E-6</v>
       </c>
       <c r="AF31" s="15">
         <f t="shared" si="7"/>
-        <v>4.0504188739423847E-6</v>
+        <v>5.3535971203412243E-6</v>
       </c>
       <c r="AG31" s="15">
         <f t="shared" si="7"/>
-        <v>4.0856399076288512E-6</v>
+        <v>5.4663044281378953E-6</v>
       </c>
       <c r="AH31" s="15">
         <f t="shared" si="7"/>
-        <v>4.1208609413153041E-6</v>
+        <v>5.5790117359345393E-6</v>
       </c>
       <c r="AI31" s="15">
         <f t="shared" si="7"/>
-        <v>4.156081975001757E-6</v>
+        <v>5.6917190437312103E-6</v>
       </c>
       <c r="AJ31" s="15">
         <f t="shared" si="7"/>
-        <v>4.1913030086882099E-6</v>
+        <v>5.8044263515278814E-6</v>
       </c>
       <c r="AK31" s="15">
         <f t="shared" si="7"/>
-        <v>4.2265240423746629E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+        <v>5.9171336593245253E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B32" s="15">
         <f t="shared" ref="B32:F32" si="8">TREND($B26:$C26,$B$24:$C$24,B$30)</f>
-        <v>3.0059753243618986E-7</v>
+        <v>-6.0119506487237972E-7</v>
       </c>
       <c r="C32" s="15">
         <f t="shared" si="8"/>
-        <v>4.2083654541066038E-7</v>
+        <v>-4.2083654541068749E-7</v>
       </c>
       <c r="D32" s="15">
         <f t="shared" si="8"/>
-        <v>5.4107555838515801E-7</v>
+        <v>-2.4047802594894105E-7</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="8"/>
-        <v>6.6131457135962853E-7</v>
+        <v>-6.0119506487248814E-8</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="8"/>
-        <v>7.8155358433409905E-7</v>
+        <v>1.2023901297449763E-7</v>
       </c>
       <c r="G32" s="15">
-        <f t="shared" ref="G32:M33" si="9">TREND($B26:$C26,$B$24:$C$24,G$30)</f>
-        <v>9.0179259730856958E-7</v>
+        <f t="shared" ref="G32:L33" si="9">TREND($B26:$C26,$B$24:$C$24,G$30)</f>
+        <v>3.0059753243618986E-7</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="9"/>
-        <v>1.0220316102830672E-6</v>
+        <v>4.809560518979363E-7</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="9"/>
-        <v>1.1422706232575377E-6</v>
+        <v>6.6131457135962853E-7</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="9"/>
-        <v>1.2625096362320083E-6</v>
+        <v>8.4167309082132076E-7</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="9"/>
-        <v>1.3827486492064788E-6</v>
+        <v>1.0220316102830672E-6</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="9"/>
-        <v>1.5029876621809764E-6</v>
+        <v>1.2023901297447594E-6</v>
       </c>
       <c r="M32" s="15">
-        <f t="shared" ref="M32:W33" si="10">TREND($C26:$D26,$C$24:$D$24,M$30)</f>
-        <v>1.5631071686681981E-6</v>
+        <f t="shared" ref="M32:V33" si="10">TREND($C26:$D26,$C$24:$D$24,M$30)</f>
+        <v>1.3226291427192571E-6</v>
       </c>
       <c r="N32" s="15">
         <f t="shared" si="10"/>
-        <v>1.6232266751554334E-6</v>
+        <v>1.4428681556937276E-6</v>
       </c>
       <c r="O32" s="15">
         <f t="shared" si="10"/>
-        <v>1.6833461816426686E-6</v>
+        <v>1.5631071686681981E-6</v>
       </c>
       <c r="P32" s="15">
         <f t="shared" si="10"/>
-        <v>1.7434656881299174E-6</v>
+        <v>1.6833461816426957E-6</v>
       </c>
       <c r="Q32" s="15">
         <f t="shared" si="10"/>
-        <v>1.8035851946171527E-6</v>
+        <v>1.8035851946171663E-6</v>
       </c>
       <c r="R32" s="15">
         <f t="shared" si="10"/>
-        <v>1.8637047011044015E-6</v>
+        <v>1.9238242075916639E-6</v>
       </c>
       <c r="S32" s="15">
         <f t="shared" si="10"/>
-        <v>1.9238242075916232E-6</v>
+        <v>2.0440632205661073E-6</v>
       </c>
       <c r="T32" s="15">
         <f t="shared" si="10"/>
-        <v>1.983943714078872E-6</v>
+        <v>2.1643022335406049E-6</v>
       </c>
       <c r="U32" s="15">
         <f t="shared" si="10"/>
-        <v>2.0440632205660938E-6</v>
+        <v>2.2845412465150484E-6</v>
       </c>
       <c r="V32" s="15">
         <f t="shared" si="10"/>
-        <v>2.1041827270533426E-6</v>
+        <v>2.404780259489546E-6</v>
       </c>
       <c r="W32" s="15">
         <f t="shared" ref="W32:AK33" si="11">TREND($D26:$E26,$D$24:$E$24,W$30)</f>
-        <v>2.1242225625490944E-6</v>
+        <v>2.4689077330759248E-6</v>
       </c>
       <c r="X32" s="15">
         <f t="shared" si="11"/>
-        <v>2.1442623980448395E-6</v>
+        <v>2.5330352066623037E-6</v>
       </c>
       <c r="Y32" s="15">
         <f t="shared" si="11"/>
-        <v>2.1643022335405846E-6</v>
+        <v>2.5971626802487097E-6</v>
       </c>
       <c r="Z32" s="15">
         <f t="shared" si="11"/>
-        <v>2.1843420690363365E-6</v>
+        <v>2.6612901538350885E-6</v>
       </c>
       <c r="AA32" s="15">
         <f t="shared" si="11"/>
-        <v>2.2043819045320816E-6</v>
+        <v>2.7254176274214674E-6</v>
       </c>
       <c r="AB32" s="15">
         <f t="shared" si="11"/>
-        <v>2.2244217400278266E-6</v>
+        <v>2.7895451010078733E-6</v>
       </c>
       <c r="AC32" s="15">
         <f t="shared" si="11"/>
-        <v>2.2444615755235717E-6</v>
+        <v>2.8536725745942522E-6</v>
       </c>
       <c r="AD32" s="15">
         <f t="shared" si="11"/>
-        <v>2.2645014110193168E-6</v>
+        <v>2.9178000481806311E-6</v>
       </c>
       <c r="AE32" s="15">
         <f t="shared" si="11"/>
-        <v>2.2845412465150619E-6</v>
+        <v>2.981927521767037E-6</v>
       </c>
       <c r="AF32" s="15">
         <f t="shared" si="11"/>
-        <v>2.3045810820108138E-6</v>
+        <v>3.0460549953534159E-6</v>
       </c>
       <c r="AG32" s="15">
         <f t="shared" si="11"/>
-        <v>2.3246209175065589E-6</v>
+        <v>3.1101824689397947E-6</v>
       </c>
       <c r="AH32" s="15">
         <f t="shared" si="11"/>
-        <v>2.3446607530023039E-6</v>
+        <v>3.1743099425262007E-6</v>
       </c>
       <c r="AI32" s="15">
         <f t="shared" si="11"/>
-        <v>2.364700588498049E-6</v>
+        <v>3.2384374161125795E-6</v>
       </c>
       <c r="AJ32" s="15">
         <f t="shared" si="11"/>
-        <v>2.3847404239937941E-6</v>
+        <v>3.3025648896989584E-6</v>
       </c>
       <c r="AK32" s="15">
         <f t="shared" si="11"/>
-        <v>2.4047802594895392E-6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+        <v>3.3666923632853644E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B33" s="15">
         <f t="shared" ref="B33:F33" si="12">TREND($B27:$C27,$B$24:$C$24,B$30)</f>
-        <v>4.4587490285883302E-7</v>
+        <v>-8.9174980571766604E-7</v>
       </c>
       <c r="C33" s="15">
         <f t="shared" si="12"/>
-        <v>6.2422486400237707E-7</v>
+        <v>-6.2422486400237707E-7</v>
       </c>
       <c r="D33" s="15">
         <f t="shared" si="12"/>
-        <v>8.0257482514586691E-7</v>
+        <v>-3.566999222870881E-7</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="12"/>
-        <v>9.8092478628941096E-7</v>
+        <v>-8.917498057179913E-8</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="12"/>
-        <v>1.1592747474329008E-6</v>
+        <v>1.7834996114348984E-7</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="9"/>
-        <v>1.3376247085764448E-6</v>
+        <v>4.4587490285877881E-7</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="9"/>
-        <v>1.5159746697199347E-6</v>
+        <v>7.1339984457406778E-7</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="9"/>
-        <v>1.6943246308634787E-6</v>
+        <v>9.8092478628935675E-7</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="9"/>
-        <v>1.8726745920070228E-6</v>
+        <v>1.2484497280046457E-6</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="9"/>
-        <v>2.0510245531505126E-6</v>
+        <v>1.5159746697199347E-6</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="9"/>
-        <v>2.2293745142940567E-6</v>
+        <v>1.7834996114352237E-6</v>
       </c>
       <c r="M33" s="15">
         <f t="shared" si="10"/>
-        <v>2.3185494948657474E-6</v>
+        <v>1.9618495725787135E-6</v>
       </c>
       <c r="N33" s="15">
         <f t="shared" si="10"/>
-        <v>2.4077244754375194E-6</v>
+        <v>2.1401995337222575E-6</v>
       </c>
       <c r="O33" s="15">
         <f t="shared" si="10"/>
-        <v>2.4968994560092914E-6</v>
+        <v>2.3185494948658016E-6</v>
       </c>
       <c r="P33" s="15">
         <f t="shared" si="10"/>
-        <v>2.5860744365810364E-6</v>
+        <v>2.4968994560092914E-6</v>
       </c>
       <c r="Q33" s="15">
         <f t="shared" si="10"/>
-        <v>2.6752494171528084E-6</v>
+        <v>2.6752494171528355E-6</v>
       </c>
       <c r="R33" s="15">
         <f t="shared" si="10"/>
-        <v>2.7644243977245533E-6</v>
+        <v>2.8535993782963253E-6</v>
       </c>
       <c r="S33" s="15">
         <f t="shared" si="10"/>
-        <v>2.8535993782963253E-6</v>
+        <v>3.0319493394398694E-6</v>
       </c>
       <c r="T33" s="15">
         <f t="shared" si="10"/>
-        <v>2.9427743588680702E-6</v>
+        <v>3.2102993005833592E-6</v>
       </c>
       <c r="U33" s="15">
         <f t="shared" si="10"/>
-        <v>3.0319493394398423E-6</v>
+        <v>3.3886492617269033E-6</v>
       </c>
       <c r="V33" s="15">
         <f t="shared" si="10"/>
-        <v>3.1211243200116143E-6</v>
+        <v>3.5669992228704473E-6</v>
       </c>
       <c r="W33" s="15">
         <f t="shared" si="11"/>
-        <v>3.1508493135355383E-6</v>
+        <v>3.6621192021469933E-6</v>
       </c>
       <c r="X33" s="15">
         <f t="shared" si="11"/>
-        <v>3.1805743070594555E-6</v>
+        <v>3.7572391814235393E-6</v>
       </c>
       <c r="Y33" s="15">
         <f t="shared" si="11"/>
-        <v>3.2102993005833795E-6</v>
+        <v>3.8523591607000853E-6</v>
       </c>
       <c r="Z33" s="15">
         <f t="shared" si="11"/>
-        <v>3.2400242941072968E-6</v>
+        <v>3.9474791399766041E-6</v>
       </c>
       <c r="AA33" s="15">
         <f t="shared" si="11"/>
-        <v>3.2697492876312208E-6</v>
+        <v>4.0425991192531501E-6</v>
       </c>
       <c r="AB33" s="15">
         <f t="shared" si="11"/>
-        <v>3.299474281155138E-6</v>
+        <v>4.1377190985296961E-6</v>
       </c>
       <c r="AC33" s="15">
         <f t="shared" si="11"/>
-        <v>3.3291992746790552E-6</v>
+        <v>4.2328390778062421E-6</v>
       </c>
       <c r="AD33" s="15">
         <f t="shared" si="11"/>
-        <v>3.3589242682029793E-6</v>
+        <v>4.3279590570827881E-6</v>
       </c>
       <c r="AE33" s="15">
         <f t="shared" si="11"/>
-        <v>3.3886492617268965E-6</v>
+        <v>4.4230790363593341E-6</v>
       </c>
       <c r="AF33" s="15">
         <f t="shared" si="11"/>
-        <v>3.4183742552508205E-6</v>
+        <v>4.51819901563588E-6</v>
       </c>
       <c r="AG33" s="15">
         <f t="shared" si="11"/>
-        <v>3.4480992487747377E-6</v>
+        <v>4.613318994912426E-6</v>
       </c>
       <c r="AH33" s="15">
         <f t="shared" si="11"/>
-        <v>3.4778242422986617E-6</v>
+        <v>4.708438974188972E-6</v>
       </c>
       <c r="AI33" s="15">
         <f t="shared" si="11"/>
-        <v>3.507549235822579E-6</v>
+        <v>4.803558953465518E-6</v>
       </c>
       <c r="AJ33" s="15">
         <f t="shared" si="11"/>
-        <v>3.5372742293464962E-6</v>
+        <v>4.898678932742064E-6</v>
       </c>
       <c r="AK33" s="15">
         <f t="shared" si="11"/>
-        <v>3.5669992228704202E-6</v>
+        <v>4.99379891201861E-6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17500,29 +17559,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3412000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>947817</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>72</v>
       </c>
@@ -17530,7 +17589,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.95</v>
       </c>
@@ -17538,23 +17597,23 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>3.7854100000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120405</v>
       </c>
@@ -17562,12 +17621,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>137381</v>
       </c>
@@ -17575,12 +17634,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5778000</v>
       </c>
@@ -17588,52 +17647,52 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>264.17200000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>118300</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.97099999999999997</v>
       </c>
@@ -17650,14 +17709,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -17668,7 +17727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -17679,14 +17738,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13">
         <v>1000000</v>
@@ -17695,13 +17754,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -17742,7 +17801,7 @@
       <c r="AJ9" s="11"/>
       <c r="AK9" s="11"/>
     </row>
-    <row r="10" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2015</v>
       </c>
@@ -17852,7 +17911,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -18021,16 +18080,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="10" width="10" style="12" customWidth="1"/>
     <col min="11" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.1796875" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.1796875" style="1"/>
+    <col min="28" max="28" width="9.140625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18143,7 +18202,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -18292,7 +18351,7 @@
         <v>5.9492186920325889E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -18405,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -18554,7 +18613,7 @@
         <v>5.9492186920325889E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -18703,7 +18762,7 @@
         <v>5.9492186920325889E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -18852,7 +18911,7 @@
         <v>8.1958315402080501E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -18965,7 +19024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -19097,16 +19156,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
     <col min="2" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
     <col min="6" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19219,7 +19278,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -19332,156 +19391,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="15">
         <f>'Poland Fuel Price Data Annual'!B$12+'ETS Tax'!B31</f>
-        <v>4.263213697669406E-6</v>
+        <v>2.678267181778943E-6</v>
       </c>
       <c r="C3" s="15">
         <f>'Poland Fuel Price Data Annual'!C$12+'ETS Tax'!C31</f>
-        <v>4.5146320272769139E-6</v>
+        <v>3.0353486124457826E-6</v>
       </c>
       <c r="D3" s="15">
         <f>'Poland Fuel Price Data Annual'!D$12+'ETS Tax'!D31</f>
-        <v>4.7660503568843811E-6</v>
+        <v>3.3924300431126356E-6</v>
       </c>
       <c r="E3" s="15">
         <f>'Poland Fuel Price Data Annual'!E$12+'ETS Tax'!E31</f>
-        <v>5.0174686864918483E-6</v>
+        <v>3.7495114737794887E-6</v>
       </c>
       <c r="F3" s="15">
         <f>'Poland Fuel Price Data Annual'!F$12+'ETS Tax'!F31</f>
-        <v>5.2688870160993019E-6</v>
+        <v>4.1065929044463282E-6</v>
       </c>
       <c r="G3" s="15">
         <f>'Poland Fuel Price Data Annual'!G$12+'ETS Tax'!G31</f>
-        <v>5.5203053457068233E-6</v>
+        <v>4.4636743351131813E-6</v>
       </c>
       <c r="H3" s="15">
         <f>'Poland Fuel Price Data Annual'!H$12+'ETS Tax'!H31</f>
-        <v>5.7759438992604746E-6</v>
+        <v>4.8249759897262185E-6</v>
       </c>
       <c r="I3" s="15">
         <f>'Poland Fuel Price Data Annual'!I$12+'ETS Tax'!I31</f>
-        <v>6.0315824528141124E-6</v>
+        <v>5.1862776443392422E-6</v>
       </c>
       <c r="J3" s="15">
         <f>'Poland Fuel Price Data Annual'!J$12+'ETS Tax'!J31</f>
-        <v>6.287221006367818E-6</v>
+        <v>5.5475792989522795E-6</v>
       </c>
       <c r="K3" s="15">
         <f>'Poland Fuel Price Data Annual'!K$12+'ETS Tax'!K31</f>
-        <v>6.5428595599214694E-6</v>
+        <v>5.9088809535653167E-6</v>
       </c>
       <c r="L3" s="15">
         <f>'Poland Fuel Price Data Annual'!L$12+'ETS Tax'!L31</f>
-        <v>6.7984981134751072E-6</v>
+        <v>6.2701826081783404E-6</v>
       </c>
       <c r="M3" s="15">
         <f>'Poland Fuel Price Data Annual'!M$12+'ETS Tax'!M31</f>
-        <v>6.9674645737272556E-6</v>
+        <v>6.5448121694897663E-6</v>
       </c>
       <c r="N3" s="15">
         <f>'Poland Fuel Price Data Annual'!N$12+'ETS Tax'!N31</f>
-        <v>7.1364310339793499E-6</v>
+        <v>6.8194417308012193E-6</v>
       </c>
       <c r="O3" s="15">
         <f>'Poland Fuel Price Data Annual'!O$12+'ETS Tax'!O31</f>
-        <v>7.3053974942314712E-6</v>
+        <v>7.0940712921126995E-6</v>
       </c>
       <c r="P3" s="15">
         <f>'Poland Fuel Price Data Annual'!P$12+'ETS Tax'!P31</f>
-        <v>7.4743639544835926E-6</v>
+        <v>7.3687008534241796E-6</v>
       </c>
       <c r="Q3" s="15">
         <f>'Poland Fuel Price Data Annual'!Q$12+'ETS Tax'!Q31</f>
-        <v>7.643330414735741E-6</v>
+        <v>7.6433304147357139E-6</v>
       </c>
       <c r="R3" s="15">
         <f>'Poland Fuel Price Data Annual'!R$12+'ETS Tax'!R31</f>
-        <v>7.8207373228802036E-6</v>
+        <v>7.9264004239395353E-6</v>
       </c>
       <c r="S3" s="15">
         <f>'Poland Fuel Price Data Annual'!S$12+'ETS Tax'!S31</f>
-        <v>7.9981442310246933E-6</v>
+        <v>8.2094704331433838E-6</v>
       </c>
       <c r="T3" s="15">
         <f>'Poland Fuel Price Data Annual'!T$12+'ETS Tax'!T31</f>
-        <v>8.175551139169183E-6</v>
+        <v>8.4925404423472593E-6</v>
       </c>
       <c r="U3" s="15">
         <f>'Poland Fuel Price Data Annual'!U$12+'ETS Tax'!U31</f>
-        <v>8.3529580473136727E-6</v>
+        <v>8.7756104515511078E-6</v>
       </c>
       <c r="V3" s="15">
         <f>'Poland Fuel Price Data Annual'!V$12+'ETS Tax'!V31</f>
-        <v>8.5303649554581624E-6</v>
+        <v>9.0586804607549563E-6</v>
       </c>
       <c r="W3" s="15">
         <f>'Poland Fuel Price Data Annual'!W$12+'ETS Tax'!W31</f>
-        <v>8.6394399082028519E-6</v>
+        <v>9.2452416876098774E-6</v>
       </c>
       <c r="X3" s="15">
         <f>'Poland Fuel Price Data Annual'!X$12+'ETS Tax'!X31</f>
-        <v>8.7485148609475007E-6</v>
+        <v>9.4318029144647173E-6</v>
       </c>
       <c r="Y3" s="15">
         <f>'Poland Fuel Price Data Annual'!Y$12+'ETS Tax'!Y31</f>
-        <v>8.8575898136921766E-6</v>
+        <v>9.6183641413196113E-6</v>
       </c>
       <c r="Z3" s="15">
         <f>'Poland Fuel Price Data Annual'!Z$12+'ETS Tax'!Z31</f>
-        <v>8.9666647664368525E-6</v>
+        <v>9.8049253681744782E-6</v>
       </c>
       <c r="AA3" s="15">
         <f>'Poland Fuel Price Data Annual'!AA$12+'ETS Tax'!AA31</f>
-        <v>9.0757397191815013E-6</v>
+        <v>9.9914865950293452E-6</v>
       </c>
       <c r="AB3" s="15">
         <f>'Poland Fuel Price Data Annual'!AB$12+'ETS Tax'!AB31</f>
-        <v>9.1911450078454671E-6</v>
+        <v>1.0184378157803488E-5</v>
       </c>
       <c r="AC3" s="15">
         <f>'Poland Fuel Price Data Annual'!AC$12+'ETS Tax'!AC31</f>
-        <v>9.3065502965094193E-6</v>
+        <v>1.0377269720577659E-5</v>
       </c>
       <c r="AD3" s="15">
         <f>'Poland Fuel Price Data Annual'!AD$12+'ETS Tax'!AD31</f>
-        <v>9.4219555851733714E-6</v>
+        <v>1.0570161283351802E-5</v>
       </c>
       <c r="AE3" s="15">
         <f>'Poland Fuel Price Data Annual'!AE$12+'ETS Tax'!AE31</f>
-        <v>9.5373608738372965E-6</v>
+        <v>1.0763052846125945E-5</v>
       </c>
       <c r="AF3" s="15">
         <f>'Poland Fuel Price Data Annual'!AF$12+'ETS Tax'!AF31</f>
-        <v>9.6527661625012487E-6</v>
+        <v>1.0955944408900088E-5</v>
       </c>
       <c r="AG3" s="15">
         <f>'Poland Fuel Price Data Annual'!AG$12+'ETS Tax'!AG31</f>
-        <v>9.7745017870844907E-6</v>
+        <v>1.1155166307593535E-5</v>
       </c>
       <c r="AH3" s="15">
         <f>'Poland Fuel Price Data Annual'!AH$12+'ETS Tax'!AH31</f>
-        <v>9.896237411667692E-6</v>
+        <v>1.1354388206286927E-5</v>
       </c>
       <c r="AI3" s="15">
         <f>'Poland Fuel Price Data Annual'!AI$12+'ETS Tax'!AI31</f>
-        <v>1.001797303625092E-5</v>
+        <v>1.1553610104980374E-5</v>
       </c>
       <c r="AJ3" s="15">
         <f>'Poland Fuel Price Data Annual'!AJ$12+'ETS Tax'!AJ31</f>
-        <v>1.0139708660834149E-5</v>
+        <v>1.175283200367382E-5</v>
       </c>
       <c r="AK3" s="15">
         <f>'Poland Fuel Price Data Annual'!AK$12+'ETS Tax'!AK31</f>
-        <v>1.026144428541735E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+        <v>1.1952053902367213E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -19630,7 +19689,7 @@
         <v>9.0523803645640175E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -19779,7 +19838,7 @@
         <v>9.0523803645640175E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -19928,7 +19987,7 @@
         <v>6.0349202430426874E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -20077,7 +20136,7 @@
         <v>6.0349202430426874E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
